--- a/RPG.xlsx
+++ b/RPG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Главное" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="118">
   <si>
     <t>Расы</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>StartDamage - 10</t>
+  </si>
+  <si>
+    <t>4000-4499</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>4500-4999</t>
+  </si>
+  <si>
+    <t>Skills</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AX36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,6 +3600,22 @@
         <v>105</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3599,7 +3627,7 @@
   <dimension ref="A1:AR49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
